--- a/src/reportes/productos/productos.xlsx
+++ b/src/reportes/productos/productos.xlsx
@@ -4,14 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Don Hilario - Ventas" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Don Hilario - Productos" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Total de filas</t>
+  </si>
+  <si>
+    <t>Total de productos</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
@@ -415,54 +424,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
     </row>

--- a/src/reportes/productos/productos.xlsx
+++ b/src/reportes/productos/productos.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>Total de filas</t>
-  </si>
-  <si>
-    <t>Total de productos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Total de elementos</t>
+  </si>
+  <si>
+    <t>Tipo de filtrado</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Cantidad total</t>
   </si>
   <si>
     <t/>
@@ -34,16 +40,13 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>26-08-2021</t>
-  </si>
-  <si>
-    <t>YERBA MATE</t>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>EDULCORANTE SIDIET 600ML</t>
   </si>
   <si>
     <t>UNIDAD</t>
-  </si>
-  <si>
-    <t>EDULCORANTE SIDIET 600ML</t>
   </si>
 </sst>
 </file>
@@ -432,62 +435,56 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/reportes/productos/productos.xlsx
+++ b/src/reportes/productos/productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Total de elementos</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Tipo de filtrado</t>
   </si>
   <si>
-    <t>Egresos</t>
+    <t>Ingresos</t>
   </si>
   <si>
     <t>Cantidad total</t>
@@ -43,10 +43,82 @@
     <t>27-08-2021</t>
   </si>
   <si>
-    <t>EDULCORANTE SIDIET 600ML</t>
-  </si>
-  <si>
-    <t>UNIDAD</t>
+    <t>AGUJA</t>
+  </si>
+  <si>
+    <t>KILOGRAMO</t>
+  </si>
+  <si>
+    <t>ASADO CARNICERO</t>
+  </si>
+  <si>
+    <t>BOLA DE LOMO</t>
+  </si>
+  <si>
+    <t>COLITA DE CUADRIL</t>
+  </si>
+  <si>
+    <t>COSTELETA</t>
+  </si>
+  <si>
+    <t>COSTILLA</t>
+  </si>
+  <si>
+    <t>CUADRADA</t>
+  </si>
+  <si>
+    <t>CUADRADA CERDO</t>
+  </si>
+  <si>
+    <t>CUADRIL</t>
+  </si>
+  <si>
+    <t>FALDA</t>
+  </si>
+  <si>
+    <t>LOMO</t>
+  </si>
+  <si>
+    <t>LOMO CERDO</t>
+  </si>
+  <si>
+    <t>MATAMBRE</t>
+  </si>
+  <si>
+    <t>MEDIA COMPLETA</t>
+  </si>
+  <si>
+    <t>MILANESA DE CARNE</t>
+  </si>
+  <si>
+    <t>MOLIDA CERDO</t>
+  </si>
+  <si>
+    <t>MOLIDA COMUN</t>
+  </si>
+  <si>
+    <t>MOLIDA ESPECIAL</t>
+  </si>
+  <si>
+    <t>NALGA</t>
+  </si>
+  <si>
+    <t>NALGA CERDO</t>
+  </si>
+  <si>
+    <t>OSOBUCO</t>
+  </si>
+  <si>
+    <t>PALETA</t>
+  </si>
+  <si>
+    <t>PECETO</t>
+  </si>
+  <si>
+    <t>TAPA DE ASADO</t>
+  </si>
+  <si>
+    <t>VACIO</t>
   </si>
 </sst>
 </file>
@@ -427,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2137.26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -484,7 +556,343 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>39.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>8.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>67.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>76.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>33.35</v>
       </c>
     </row>
   </sheetData>
